--- a/maia-hdl/projects/pluto/Table.xlsx
+++ b/maia-hdl/projects/pluto/Table.xlsx
@@ -23,19 +23,19 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Path 191</t>
+    <t>Path 209</t>
   </si>
   <si>
     <t>Slack</t>
   </si>
   <si>
-    <t>-5.117ns</t>
+    <t>-5.624ns</t>
   </si>
   <si>
     <t>Source</t>
   </si>
   <si>
-    <t>i_system_wrapper/system_i/maia_sdr/inst/control_registers/control/field_sdr_reset_reg/C   (rising edge-triggered cell FDSE clocked by clk_fpga_0  {rise@0.000ns fall@5.000ns period=10.000ns})</t>
+    <t>i_system_wrapper/system_i/maia_sdr/inst/txiq_cdc/sync_reset_w/stage1_reg/C   (rising edge-triggered cell FDRE clocked by clk_out1_system_maia_sdr_clk_0  {rise@0.000ns fall@8.000ns period=16.000ns})</t>
   </si>
   <si>
     <t>Destination</t>
@@ -59,13 +59,13 @@
     <t>Requirement</t>
   </si>
   <si>
-    <t>0.011ns (rx_clk rise@9160.011ns - clk_fpga_0 rise@9160.000ns)</t>
+    <t>0.031ns (rx_clk rise@14464.030ns - clk_out1_system_maia_sdr_clk_0 rise@14464.000ns)</t>
   </si>
   <si>
     <t>Data Path Delay</t>
   </si>
   <si>
-    <t>3.958ns (logic 0.456ns (11.521%)  route 3.502ns (88.479%))</t>
+    <t>0.838ns (logic 0.456ns (54.437%)  route 0.382ns (45.563%))</t>
   </si>
   <si>
     <t>Logic Levels</t>
@@ -77,13 +77,13 @@
     <t>Clock Path Skew</t>
   </si>
   <si>
-    <t>1.352ns</t>
+    <t>-2.274ns</t>
   </si>
   <si>
     <t>Clock Uncertainty</t>
   </si>
   <si>
-    <t>0.154ns</t>
+    <t>0.175ns</t>
   </si>
   <si>
     <t>Clock Domain Crossing</t>
@@ -158,7 +158,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="23.59375" customWidth="true"/>
-    <col min="2" max="2" width="195.0" customWidth="true"/>
+    <col min="2" max="2" width="206.09375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/maia-hdl/projects/pluto/Table.xlsx
+++ b/maia-hdl/projects/pluto/Table.xlsx
@@ -12,30 +12,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="118">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Summary</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Path 209</t>
+    <t>Path 191</t>
   </si>
   <si>
     <t>Slack</t>
   </si>
   <si>
-    <t>-5.624ns</t>
+    <t>-5.003ns</t>
   </si>
   <si>
     <t>Source</t>
   </si>
   <si>
-    <t>i_system_wrapper/system_i/maia_sdr/inst/txiq_cdc/sync_reset_w/stage1_reg/C   (rising edge-triggered cell FDRE clocked by clk_out1_system_maia_sdr_clk_0  {rise@0.000ns fall@8.000ns period=16.000ns})</t>
+    <t>i_system_wrapper/system_i/maia_sdr/inst/control_registers/control/field_sdr_reset_reg/C   (rising edge-triggered cell FDSE clocked by clk_fpga_0  {rise@0.000ns fall@5.000ns period=10.000ns})</t>
   </si>
   <si>
     <t>Destination</t>
@@ -59,13 +59,13 @@
     <t>Requirement</t>
   </si>
   <si>
-    <t>0.031ns (rx_clk rise@14464.030ns - clk_out1_system_maia_sdr_clk_0 rise@14464.000ns)</t>
+    <t>0.011ns (rx_clk rise@9160.011ns - clk_fpga_0 rise@9160.000ns)</t>
   </si>
   <si>
     <t>Data Path Delay</t>
   </si>
   <si>
-    <t>0.838ns (logic 0.456ns (54.437%)  route 0.382ns (45.563%))</t>
+    <t>3.843ns (logic 0.456ns (11.866%)  route 3.387ns (88.134%))</t>
   </si>
   <si>
     <t>Logic Levels</t>
@@ -77,19 +77,295 @@
     <t>Clock Path Skew</t>
   </si>
   <si>
-    <t>-2.274ns</t>
+    <t>1.352ns</t>
   </si>
   <si>
     <t>Clock Uncertainty</t>
   </si>
   <si>
-    <t>0.175ns</t>
+    <t>0.154ns</t>
   </si>
   <si>
     <t>Clock Domain Crossing</t>
   </si>
   <si>
     <t>Inter clock paths are considered valid unless explicitly excluded by timing constraints such as set_clock_groups or set_false_path.</t>
+  </si>
+  <si>
+    <t>Source Clock Path</t>
+  </si>
+  <si>
+    <t>Delay Type</t>
+  </si>
+  <si>
+    <t>Incr (ns)</t>
+  </si>
+  <si>
+    <t>Path (ns)</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cell Pin</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>Netlist Resources</t>
+  </si>
+  <si>
+    <t>Partition</t>
+  </si>
+  <si>
+    <t>(clock clk_fpga_0 rise edge)</t>
+  </si>
+  <si>
+    <t>(r) 9160.000</t>
+  </si>
+  <si>
+    <t>9160.000</t>
+  </si>
+  <si>
+    <t>PS7</t>
+  </si>
+  <si>
+    <t>(r) 0.000</t>
+  </si>
+  <si>
+    <t>Site: PS7_X0Y0</t>
+  </si>
+  <si>
+    <t>FCLKCLK[0]</t>
+  </si>
+  <si>
+    <t>PS7_i (PS7)</t>
+  </si>
+  <si>
+    <t>i_system_wrapper/system_i/sys_ps7/inst/PS7_i/FCLKCLK[0]</t>
+  </si>
+  <si>
+    <t>net (fo=1, routed)</t>
+  </si>
+  <si>
+    <t>1.207</t>
+  </si>
+  <si>
+    <t>9161.207</t>
+  </si>
+  <si>
+    <t>i_system_wrapper/system_i/sys_ps7/inst/FCLK_CLK_unbuffered[0]</t>
+  </si>
+  <si>
+    <t>BUFG (Prop_bufg_I_O)</t>
+  </si>
+  <si>
+    <t>(r) 0.101</t>
+  </si>
+  <si>
+    <t>9161.308</t>
+  </si>
+  <si>
+    <t>Site: BUFGCTRL_X0Y1</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>buffer_fclk_clk_0.FCLK_CLK_0_BUFG (BUFG)</t>
+  </si>
+  <si>
+    <t>i_system_wrapper/system_i/sys_ps7/inst/buffer_fclk_clk_0.FCLK_CLK_0_BUFG/O</t>
+  </si>
+  <si>
+    <t>net (fo=2462, routed)</t>
+  </si>
+  <si>
+    <t>1.665</t>
+  </si>
+  <si>
+    <t>9162.973</t>
+  </si>
+  <si>
+    <t>i_system_wrapper/system_i/maia_sdr/inst/control_registers/control/s_axi_lite_clk</t>
+  </si>
+  <si>
+    <t>FDSE</t>
+  </si>
+  <si>
+    <t>Site: SLICE_X7Y63</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>field_sdr_reset_reg (FDSE)</t>
+  </si>
+  <si>
+    <t>i_system_wrapper/system_i/maia_sdr/inst/control_registers/control/field_sdr_reset_reg/C</t>
+  </si>
+  <si>
+    <t>Data Path</t>
+  </si>
+  <si>
+    <t>FDSE (Prop_fdse_C_Q)</t>
+  </si>
+  <si>
+    <t>(f) 0.456</t>
+  </si>
+  <si>
+    <t>9163.429</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>i_system_wrapper/system_i/maia_sdr/inst/control_registers/control/field_sdr_reset_reg/Q</t>
+  </si>
+  <si>
+    <t>net (fo=9, routed)</t>
+  </si>
+  <si>
+    <t>3.387</t>
+  </si>
+  <si>
+    <t>9166.816</t>
+  </si>
+  <si>
+    <t>i_system_wrapper/system_i/maia_sdr/inst/txiq_cdc/fifo/in0</t>
+  </si>
+  <si>
+    <t>FIFO18E1</t>
+  </si>
+  <si>
+    <t>Site: RAMB18_X0Y24</t>
+  </si>
+  <si>
+    <t>RST</t>
+  </si>
+  <si>
+    <t>fifo18e1 (FIFO18E1)</t>
+  </si>
+  <si>
+    <t>i_system_wrapper/system_i/maia_sdr/inst/txiq_cdc/fifo/fifo18e1/RST</t>
+  </si>
+  <si>
+    <t>Arrival Time</t>
+  </si>
+  <si>
+    <t>9166.815</t>
+  </si>
+  <si>
+    <t>Destination Clock Path</t>
+  </si>
+  <si>
+    <t>(clock rx_clk rise edge)</t>
+  </si>
+  <si>
+    <t>(r) 9160.011</t>
+  </si>
+  <si>
+    <t>9160.011</t>
+  </si>
+  <si>
+    <t>Site: L12</t>
+  </si>
+  <si>
+    <t>rx_clk_in</t>
+  </si>
+  <si>
+    <t>net (fo=0)</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t>i_system_wrapper/system_i/axi_ad9361/inst/i_dev_if/i_clk/rx_clk_in</t>
+  </si>
+  <si>
+    <t>IBUF (Prop_ibuf_I_O)</t>
+  </si>
+  <si>
+    <t>(r) 0.827</t>
+  </si>
+  <si>
+    <t>9160.837</t>
+  </si>
+  <si>
+    <t>i_rx_clk_ibuf (IBUF)</t>
+  </si>
+  <si>
+    <t>i_system_wrapper/system_i/axi_ad9361/inst/i_dev_if/i_clk/i_rx_clk_ibuf/O</t>
+  </si>
+  <si>
+    <t>1.880</t>
+  </si>
+  <si>
+    <t>9162.717</t>
+  </si>
+  <si>
+    <t>i_system_wrapper/system_i/axi_ad9361/inst/i_dev_if/i_clk/clk_ibuf_s</t>
+  </si>
+  <si>
+    <t>(r) 0.091</t>
+  </si>
+  <si>
+    <t>9162.808</t>
+  </si>
+  <si>
+    <t>Site: BUFGCTRL_X0Y2</t>
+  </si>
+  <si>
+    <t>i_clk_gbuf (BUFG)</t>
+  </si>
+  <si>
+    <t>i_system_wrapper/system_i/axi_ad9361/inst/i_dev_if/i_clk/i_clk_gbuf/O</t>
+  </si>
+  <si>
+    <t>net (fo=956, routed)</t>
+  </si>
+  <si>
+    <t>1.527</t>
+  </si>
+  <si>
+    <t>9164.335</t>
+  </si>
+  <si>
+    <t>i_system_wrapper/system_i/maia_sdr/inst/txiq_cdc/fifo/sampling_clk</t>
+  </si>
+  <si>
+    <t>RDCLK</t>
+  </si>
+  <si>
+    <t>i_system_wrapper/system_i/maia_sdr/inst/txiq_cdc/fifo/fifo18e1/RDCLK</t>
+  </si>
+  <si>
+    <t>clock pessimism</t>
+  </si>
+  <si>
+    <t>clock uncertainty</t>
+  </si>
+  <si>
+    <t>-0.154</t>
+  </si>
+  <si>
+    <t>9164.181</t>
+  </si>
+  <si>
+    <t>FIFO18E1 (Recov_fifo18e1_RDCLK_RST)</t>
+  </si>
+  <si>
+    <t>-2.368</t>
+  </si>
+  <si>
+    <t>9161.813</t>
+  </si>
+  <si>
+    <t>i_system_wrapper/system_i/maia_sdr/inst/txiq_cdc/fifo/fifo18e1</t>
+  </si>
+  <si>
+    <t>Required Time</t>
   </si>
 </sst>
 </file>
@@ -151,14 +427,20 @@
   <sheetPr>
     <outlinePr summaryBelow="false"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="23.59375" customWidth="true"/>
-    <col min="2" max="2" width="206.09375" customWidth="true"/>
+    <col min="1" max="1" width="11.71875" customWidth="true"/>
+    <col min="2" max="2" width="11.71875" customWidth="true"/>
+    <col min="3" max="3" width="11.71875" customWidth="true"/>
+    <col min="4" max="4" width="11.71875" customWidth="true"/>
+    <col min="5" max="5" width="11.71875" customWidth="true"/>
+    <col min="6" max="6" width="11.71875" customWidth="true"/>
+    <col min="7" max="7" width="11.71875" customWidth="true"/>
+    <col min="8" max="8" width="11.71875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -166,103 +448,1169 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B14" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="E23" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="E26" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D27" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="E27" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D28" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D30" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="D33" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="E33" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="D34" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="D35" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="E35" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="D36" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="D37" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="E37" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="D38" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="D39" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="E39" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="D40" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E41" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="D42" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="D43" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="D44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E44" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="D45" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
